--- a/tokencosts.xlsx
+++ b/tokencosts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akku\Documents\GitHub\gptApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143C86E9-DCBA-4D59-B07A-BA07665B25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D4E24C-86EE-4642-B553-D2732D9100A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93855C7F-3A4B-4259-A870-FF6F30FBA071}"/>
+    <workbookView xWindow="396" yWindow="0" windowWidth="23040" windowHeight="12216" xr2:uid="{93855C7F-3A4B-4259-A870-FF6F30FBA071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B19A1-6416-4C8C-84A6-728D530001CB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +508,50 @@
         <v>750</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>585</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1242</v>
+      </c>
+      <c r="B11">
+        <v>647</v>
+      </c>
+      <c r="C11">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>803</v>
+      </c>
+      <c r="B12">
+        <v>239</v>
+      </c>
+      <c r="C12">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1447</v>
+      </c>
+      <c r="B13">
+        <v>697</v>
+      </c>
+      <c r="C13">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tokencosts.xlsx
+++ b/tokencosts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akku\Documents\GitHub\gptApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D4E24C-86EE-4642-B553-D2732D9100A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6CD48-1239-4DD2-9B91-FB0AA5A8601E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="0" windowWidth="23040" windowHeight="12216" xr2:uid="{93855C7F-3A4B-4259-A870-FF6F30FBA071}"/>
+    <workbookView xWindow="43305" yWindow="1140" windowWidth="23040" windowHeight="12210" xr2:uid="{93855C7F-3A4B-4259-A870-FF6F30FBA071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B19A1-6416-4C8C-84A6-728D530001CB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +552,50 @@
         <v>750</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1387</v>
+      </c>
+      <c r="B14">
+        <v>731</v>
+      </c>
+      <c r="C14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1432</v>
+      </c>
+      <c r="B15">
+        <v>748</v>
+      </c>
+      <c r="C15">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>929</v>
+      </c>
+      <c r="B16">
+        <v>179</v>
+      </c>
+      <c r="C16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>876</v>
+      </c>
+      <c r="B17">
+        <v>126</v>
+      </c>
+      <c r="C17">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
